--- a/Emerging Tech/OUST_MODEL.xlsx
+++ b/Emerging Tech/OUST_MODEL.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Documents\GitHub\Models\Emerging Tech\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAC23380-978F-4383-AFB7-4D883D006DF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB4041A2-BA09-486B-B3A2-E645ED3D4701}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9885" yWindow="7665" windowWidth="21600" windowHeight="11385" xr2:uid="{74C982A1-EE30-4588-AA95-0E58E4E415F0}"/>
+    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20985" activeTab="1" xr2:uid="{74C982A1-EE30-4588-AA95-0E58E4E415F0}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -86,7 +86,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Alex:</t>
         </r>
@@ -95,7 +95,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Impairment of 99</t>
@@ -110,7 +110,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Alex:</t>
         </r>
@@ -119,7 +119,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Impairment of 67</t>
@@ -131,7 +131,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="127">
   <si>
     <t>Price</t>
   </si>
@@ -508,23 +508,33 @@
     <t>Hit Top line</t>
   </si>
   <si>
-    <t>35-38mill revenue</t>
+    <t>Current Ratio</t>
+  </si>
+  <si>
+    <t>Hit Top Line</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="m/d/yy;@"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -584,19 +594,6 @@
       <sz val="11"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -704,55 +701,57 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="10" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="4" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -1091,8 +1090,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFB11C10-986F-41A4-B3DD-2A72A923BC11}">
   <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1123,10 +1122,10 @@
         <v>0</v>
       </c>
       <c r="B4" s="1">
-        <v>23.4</v>
+        <v>22.04</v>
       </c>
       <c r="C4" s="2">
-        <v>45875</v>
+        <v>45981</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -1134,10 +1133,10 @@
         <v>2</v>
       </c>
       <c r="B5" s="1">
-        <v>52.6</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>28</v>
+        <v>60</v>
+      </c>
+      <c r="C5" s="34" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -1146,7 +1145,7 @@
       </c>
       <c r="B6" s="1">
         <f xml:space="preserve"> B4 * B5</f>
-        <v>1230.8399999999999</v>
+        <v>1322.3999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -1154,7 +1153,7 @@
         <v>26</v>
       </c>
       <c r="B7" s="1">
-        <v>229</v>
+        <v>244</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -1162,13 +1161,13 @@
         <v>4</v>
       </c>
       <c r="B8" s="1">
-        <v>19</v>
+        <v>15.9</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>31</v>
       </c>
       <c r="E8" s="1">
-        <v>4.32</v>
+        <v>4.07</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -1177,13 +1176,13 @@
       </c>
       <c r="B9" s="1">
         <f>B6 - B7 + B8</f>
-        <v>1020.8399999999999</v>
+        <v>1094.3</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>27</v>
       </c>
       <c r="E9" s="1">
-        <v>5.27</v>
+        <v>4.13</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -1191,7 +1190,13 @@
         <v>49</v>
       </c>
       <c r="B11" s="1">
-        <v>10.27</v>
+        <v>9.83</v>
+      </c>
+      <c r="D11" s="34" t="s">
+        <v>125</v>
+      </c>
+      <c r="E11" s="1">
+        <v>3.26</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -1199,7 +1204,7 @@
         <v>50</v>
       </c>
       <c r="B12" s="1">
-        <v>7.2</v>
+        <v>5.34</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
@@ -1207,7 +1212,7 @@
         <v>51</v>
       </c>
       <c r="B13" s="1">
-        <v>-11.35</v>
+        <v>-11.14</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -1215,7 +1220,7 @@
         <v>52</v>
       </c>
       <c r="B14" s="1">
-        <v>9</v>
+        <v>7.97</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -1239,7 +1244,7 @@
         <v>60</v>
       </c>
       <c r="B17" s="1">
-        <v>-93</v>
+        <v>-98</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
@@ -1247,7 +1252,7 @@
         <v>61</v>
       </c>
       <c r="B18" s="1">
-        <v>-1.95</v>
+        <v>-1.63</v>
       </c>
     </row>
   </sheetData>
@@ -1260,8 +1265,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96E38C8F-3B6A-4584-925C-61BD108C4B76}">
   <dimension ref="A1:AD75"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="U4" sqref="U4"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="V4" sqref="V4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
@@ -1280,7 +1285,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="24" t="s">
         <v>8</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -1288,104 +1293,104 @@
       </c>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A2" s="26"/>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26" t="s">
+      <c r="A2" s="25"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="E2" s="26" t="s">
+      <c r="E2" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="F2" s="26" t="s">
+      <c r="F2" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="G2" s="26" t="s">
+      <c r="G2" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="H2" s="26" t="s">
+      <c r="H2" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="I2" s="26" t="s">
+      <c r="I2" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="J2" s="26" t="s">
+      <c r="J2" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="K2" s="26" t="s">
+      <c r="K2" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="L2" s="26" t="s">
+      <c r="L2" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="M2" s="26" t="s">
+      <c r="M2" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="N2" s="26" t="s">
+      <c r="N2" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="O2" s="26" t="s">
+      <c r="O2" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="P2" s="26" t="s">
+      <c r="P2" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="Q2" s="26" t="s">
+      <c r="Q2" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="R2" s="26" t="s">
+      <c r="R2" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="S2" s="26" t="s">
+      <c r="S2" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="T2" s="26" t="s">
+      <c r="T2" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="U2" s="26" t="s">
+      <c r="U2" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="V2" s="26" t="s">
+      <c r="V2" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="W2" s="26" t="s">
+      <c r="W2" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="X2" s="26" t="s">
+      <c r="X2" s="25" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A3" s="27"/>
-      <c r="B3" s="27" t="s">
+      <c r="A3" s="26"/>
+      <c r="B3" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27">
+      <c r="C3" s="26"/>
+      <c r="D3" s="26">
         <v>978</v>
       </c>
-      <c r="E3" s="27">
+      <c r="E3" s="26">
         <v>1460</v>
       </c>
-      <c r="F3" s="27">
+      <c r="F3" s="26">
         <v>1630</v>
       </c>
-      <c r="G3" s="27">
+      <c r="G3" s="26">
         <v>2400</v>
       </c>
-      <c r="H3" s="27">
+      <c r="H3" s="26">
         <v>1550</v>
       </c>
-      <c r="I3" s="27">
+      <c r="I3" s="26">
         <v>2020</v>
       </c>
-      <c r="J3" s="27">
+      <c r="J3" s="26">
         <v>2136</v>
       </c>
-      <c r="K3" s="27">
+      <c r="K3" s="26">
         <v>2950</v>
       </c>
-      <c r="L3" s="27">
+      <c r="L3" s="26">
         <v>3000</v>
       </c>
       <c r="M3" s="1">
@@ -1415,20 +1420,23 @@
       <c r="U3" s="1">
         <v>5500</v>
       </c>
+      <c r="V3" s="1">
+        <v>7200</v>
+      </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A6" s="27"/>
-      <c r="B6" s="27"/>
-      <c r="C6" s="27"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="27"/>
-      <c r="G6" s="27"/>
-      <c r="H6" s="27"/>
-      <c r="I6" s="27"/>
-      <c r="J6" s="27"/>
-      <c r="K6" s="27"/>
-      <c r="L6" s="27"/>
+      <c r="A6" s="26"/>
+      <c r="B6" s="26"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="26"/>
+      <c r="I6" s="26"/>
+      <c r="J6" s="26"/>
+      <c r="K6" s="26"/>
+      <c r="L6" s="26"/>
     </row>
     <row r="7" spans="1:25" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
@@ -1487,58 +1495,60 @@
       <c r="T7" s="3">
         <v>33</v>
       </c>
-      <c r="U7" s="4">
+      <c r="U7" s="35">
         <v>35</v>
       </c>
-      <c r="V7" s="4"/>
+      <c r="V7" s="35">
+        <v>39.5</v>
+      </c>
       <c r="W7" s="4"/>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A8" s="27"/>
-      <c r="B8" s="27" t="s">
+      <c r="A8" s="26"/>
+      <c r="B8" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27">
+      <c r="C8" s="26"/>
+      <c r="D8" s="26">
         <v>5</v>
       </c>
-      <c r="E8" s="27">
+      <c r="E8" s="26">
         <v>5</v>
       </c>
-      <c r="F8" s="27">
+      <c r="F8" s="26">
         <v>6</v>
       </c>
-      <c r="G8" s="27">
+      <c r="G8" s="26">
         <v>8</v>
       </c>
-      <c r="H8" s="27">
+      <c r="H8" s="26">
         <v>6</v>
       </c>
-      <c r="I8" s="27">
+      <c r="I8" s="26">
         <v>8</v>
       </c>
-      <c r="J8" s="28">
+      <c r="J8" s="27">
         <v>7</v>
       </c>
-      <c r="K8" s="28">
+      <c r="K8" s="27">
         <v>9</v>
       </c>
-      <c r="L8" s="28">
+      <c r="L8" s="27">
         <v>18</v>
       </c>
-      <c r="M8" s="28">
+      <c r="M8" s="27">
         <v>19</v>
       </c>
-      <c r="N8" s="28">
+      <c r="N8" s="27">
         <v>19</v>
       </c>
       <c r="O8" s="1">
         <v>17</v>
       </c>
-      <c r="P8" s="28">
+      <c r="P8" s="27">
         <v>19</v>
       </c>
-      <c r="Q8" s="28">
+      <c r="Q8" s="27">
         <v>18</v>
       </c>
       <c r="R8" s="1">
@@ -1552,6 +1562,9 @@
       </c>
       <c r="U8" s="1">
         <v>19</v>
+      </c>
+      <c r="V8" s="1">
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:25" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.25">
@@ -1634,7 +1647,7 @@
       </c>
       <c r="V9" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="W9" s="4">
         <f>W7 -W8</f>
@@ -1650,188 +1663,197 @@
       </c>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A10" s="27"/>
-      <c r="B10" s="27" t="s">
+      <c r="A10" s="26"/>
+      <c r="B10" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17">
+      <c r="C10" s="16"/>
+      <c r="D10" s="16">
         <v>5</v>
       </c>
-      <c r="E10" s="17">
+      <c r="E10" s="16">
         <v>6</v>
       </c>
-      <c r="F10" s="17">
+      <c r="F10" s="16">
         <v>8</v>
       </c>
-      <c r="G10" s="17">
+      <c r="G10" s="16">
         <v>15</v>
       </c>
-      <c r="H10" s="17">
+      <c r="H10" s="16">
         <v>16</v>
       </c>
-      <c r="I10" s="17">
+      <c r="I10" s="16">
         <v>16</v>
       </c>
-      <c r="J10" s="17">
+      <c r="J10" s="16">
         <v>17</v>
       </c>
-      <c r="K10" s="17">
+      <c r="K10" s="16">
         <v>15</v>
       </c>
-      <c r="L10" s="17">
+      <c r="L10" s="16">
         <v>32</v>
       </c>
-      <c r="M10" s="17">
+      <c r="M10" s="16">
         <v>26</v>
       </c>
-      <c r="N10" s="17">
+      <c r="N10" s="16">
         <v>17</v>
       </c>
-      <c r="O10" s="17">
+      <c r="O10" s="16">
         <v>15</v>
       </c>
-      <c r="P10" s="17">
+      <c r="P10" s="16">
         <v>14</v>
       </c>
-      <c r="Q10" s="17">
+      <c r="Q10" s="16">
         <v>14</v>
       </c>
-      <c r="R10" s="17">
+      <c r="R10" s="16">
         <v>15</v>
       </c>
-      <c r="S10" s="17">
+      <c r="S10" s="16">
         <v>15</v>
       </c>
-      <c r="T10" s="17">
+      <c r="T10" s="16">
         <v>15</v>
       </c>
-      <c r="U10" s="17">
+      <c r="U10" s="16">
         <v>17</v>
       </c>
+      <c r="V10" s="1">
+        <v>18</v>
+      </c>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A11" s="27"/>
+      <c r="A11" s="26"/>
       <c r="B11" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C11" s="27"/>
-      <c r="D11" s="27">
+      <c r="C11" s="26"/>
+      <c r="D11" s="26">
         <v>3</v>
       </c>
-      <c r="E11" s="27">
+      <c r="E11" s="26">
         <v>5</v>
       </c>
-      <c r="F11" s="27">
+      <c r="F11" s="26">
         <v>7</v>
       </c>
-      <c r="G11" s="27">
+      <c r="G11" s="26">
         <v>7</v>
       </c>
-      <c r="H11" s="27">
+      <c r="H11" s="26">
         <v>7</v>
       </c>
-      <c r="I11" s="27">
+      <c r="I11" s="26">
         <v>8</v>
       </c>
-      <c r="J11" s="28">
+      <c r="J11" s="27">
         <v>9</v>
       </c>
-      <c r="K11" s="28">
+      <c r="K11" s="27">
         <v>8</v>
       </c>
-      <c r="L11" s="28">
+      <c r="L11" s="27">
         <v>14</v>
       </c>
-      <c r="M11" s="28">
+      <c r="M11" s="27">
         <v>12</v>
       </c>
-      <c r="N11" s="28">
+      <c r="N11" s="27">
         <v>8</v>
       </c>
-      <c r="O11" s="28">
+      <c r="O11" s="27">
         <v>7</v>
       </c>
-      <c r="P11" s="28">
+      <c r="P11" s="27">
         <v>7</v>
       </c>
-      <c r="Q11" s="28">
+      <c r="Q11" s="27">
         <v>7</v>
       </c>
-      <c r="R11" s="28">
+      <c r="R11" s="27">
         <v>7</v>
       </c>
-      <c r="S11" s="28">
+      <c r="S11" s="27">
         <v>7</v>
       </c>
       <c r="T11" s="1">
         <v>6</v>
       </c>
-      <c r="U11" s="28">
+      <c r="U11" s="27">
         <v>7</v>
       </c>
+      <c r="V11" s="1">
+        <v>7</v>
+      </c>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A12" s="27"/>
+      <c r="A12" s="26"/>
       <c r="B12" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C12" s="27"/>
-      <c r="D12" s="27">
+      <c r="C12" s="26"/>
+      <c r="D12" s="26">
         <v>10</v>
       </c>
-      <c r="E12" s="27">
+      <c r="E12" s="26">
         <v>12</v>
       </c>
-      <c r="F12" s="27">
+      <c r="F12" s="26">
         <v>14</v>
       </c>
-      <c r="G12" s="27">
+      <c r="G12" s="26">
         <v>16</v>
       </c>
-      <c r="H12" s="27">
+      <c r="H12" s="26">
         <v>14</v>
       </c>
-      <c r="I12" s="27">
+      <c r="I12" s="26">
         <v>13</v>
       </c>
-      <c r="J12" s="28">
+      <c r="J12" s="27">
         <v>14</v>
       </c>
-      <c r="K12" s="28">
+      <c r="K12" s="27">
         <v>21</v>
       </c>
-      <c r="L12" s="28">
+      <c r="L12" s="27">
         <f xml:space="preserve"> 31 + 99</f>
         <v>130</v>
       </c>
-      <c r="M12" s="28">
+      <c r="M12" s="27">
         <f xml:space="preserve"> 18 + 67</f>
         <v>85</v>
       </c>
-      <c r="N12" s="28">
+      <c r="N12" s="27">
         <v>14</v>
       </c>
-      <c r="O12" s="28">
+      <c r="O12" s="27">
         <v>16</v>
       </c>
-      <c r="P12" s="28">
+      <c r="P12" s="27">
         <v>13</v>
       </c>
-      <c r="Q12" s="28">
+      <c r="Q12" s="27">
         <v>13</v>
       </c>
-      <c r="R12" s="28">
+      <c r="R12" s="27">
         <v>16</v>
       </c>
-      <c r="S12" s="28">
+      <c r="S12" s="27">
         <v>17</v>
       </c>
       <c r="T12" s="1">
         <v>16</v>
       </c>
-      <c r="U12" s="28">
+      <c r="U12" s="27">
         <v>19</v>
+      </c>
+      <c r="V12" s="1">
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:25" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.25">
@@ -1913,7 +1935,7 @@
       </c>
       <c r="V13" s="4">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-24.5</v>
       </c>
       <c r="W13" s="4">
         <f t="shared" si="3"/>
@@ -1950,31 +1972,31 @@
       <c r="I14" s="1">
         <v>-28</v>
       </c>
-      <c r="J14" s="28">
+      <c r="J14" s="27">
         <v>-36</v>
       </c>
-      <c r="K14" s="28">
+      <c r="K14" s="27">
         <v>-42</v>
       </c>
-      <c r="L14" s="28">
+      <c r="L14" s="27">
         <v>-177</v>
       </c>
-      <c r="M14" s="28">
+      <c r="M14" s="27">
         <v>-122</v>
       </c>
-      <c r="N14" s="28">
+      <c r="N14" s="27">
         <v>-35</v>
       </c>
       <c r="O14" s="1">
         <v>-26</v>
       </c>
-      <c r="P14" s="28">
+      <c r="P14" s="27">
         <v>-23.7</v>
       </c>
-      <c r="Q14" s="28">
+      <c r="Q14" s="27">
         <v>-24</v>
       </c>
-      <c r="R14" s="28">
+      <c r="R14" s="27">
         <v>-26</v>
       </c>
       <c r="S14" s="1">
@@ -1985,6 +2007,9 @@
       </c>
       <c r="U14" s="1">
         <v>-24</v>
+      </c>
+      <c r="V14" s="1">
+        <v>-22</v>
       </c>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.2">
@@ -2009,31 +2034,31 @@
       <c r="I15" s="1">
         <v>0.03</v>
       </c>
-      <c r="J15" s="28">
+      <c r="J15" s="27">
         <v>0.03</v>
       </c>
-      <c r="K15" s="28">
+      <c r="K15" s="27">
         <v>0.2</v>
       </c>
-      <c r="L15" s="28">
+      <c r="L15" s="27">
         <v>0.3</v>
       </c>
-      <c r="M15" s="28">
+      <c r="M15" s="27">
         <v>0.05</v>
       </c>
-      <c r="N15" s="28">
+      <c r="N15" s="27">
         <v>0.01</v>
       </c>
       <c r="O15" s="1">
         <v>-0.03</v>
       </c>
-      <c r="P15" s="28">
+      <c r="P15" s="27">
         <v>0.1</v>
       </c>
       <c r="Q15" s="1">
         <v>0.1</v>
       </c>
-      <c r="R15" s="28">
+      <c r="R15" s="27">
         <v>-0.03</v>
       </c>
       <c r="S15" s="1">
@@ -2044,6 +2069,9 @@
       </c>
       <c r="U15" s="1">
         <v>-4</v>
+      </c>
+      <c r="V15" s="1">
+        <v>-7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="16" spans="1:25" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.25">
@@ -2124,7 +2152,7 @@
       </c>
       <c r="V16" s="5">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>-21.93</v>
       </c>
       <c r="W16" s="5">
         <f t="shared" si="6"/>
@@ -2143,53 +2171,53 @@
       <c r="B17" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C17" s="29"/>
-      <c r="D17" s="29">
+      <c r="C17" s="28"/>
+      <c r="D17" s="28">
         <v>-0.38</v>
       </c>
-      <c r="E17" s="29">
+      <c r="E17" s="28">
         <v>-0.21</v>
       </c>
-      <c r="F17" s="29">
+      <c r="F17" s="28">
         <v>-0.08</v>
       </c>
-      <c r="G17" s="29">
+      <c r="G17" s="28">
         <v>-0.17</v>
       </c>
-      <c r="H17" s="29">
+      <c r="H17" s="28">
         <v>-0.19</v>
       </c>
-      <c r="I17" s="29">
+      <c r="I17" s="28">
         <v>-0.16</v>
       </c>
-      <c r="J17" s="29">
+      <c r="J17" s="28">
         <v>-0.2</v>
       </c>
-      <c r="K17" s="29">
+      <c r="K17" s="28">
         <v>-0.23</v>
       </c>
-      <c r="L17" s="29">
+      <c r="L17" s="28">
         <v>-6.03</v>
       </c>
-      <c r="M17" s="29">
+      <c r="M17" s="28">
         <v>-3.19</v>
       </c>
-      <c r="N17" s="29">
+      <c r="N17" s="28">
         <v>-0.89</v>
       </c>
       <c r="O17" s="1">
         <v>-0.54</v>
       </c>
-      <c r="P17" s="29">
+      <c r="P17" s="28">
         <v>-0.55000000000000004</v>
       </c>
-      <c r="Q17" s="29">
+      <c r="Q17" s="28">
         <v>-0.53</v>
       </c>
-      <c r="R17" s="29">
+      <c r="R17" s="28">
         <v>-0.54</v>
       </c>
-      <c r="S17" s="29">
+      <c r="S17" s="28">
         <v>-0.48</v>
       </c>
       <c r="T17" s="1">
@@ -2197,6 +2225,9 @@
       </c>
       <c r="U17" s="1">
         <v>-0.38</v>
+      </c>
+      <c r="V17" s="1">
+        <v>-0.37</v>
       </c>
     </row>
     <row r="18" spans="2:26" x14ac:dyDescent="0.2">
@@ -2230,22 +2261,22 @@
       <c r="L18" s="1">
         <v>-6.03</v>
       </c>
-      <c r="M18" s="28">
+      <c r="M18" s="27">
         <v>-3.19</v>
       </c>
-      <c r="N18" s="28">
+      <c r="N18" s="27">
         <v>-0.89</v>
       </c>
       <c r="O18" s="1">
         <v>-0.54</v>
       </c>
-      <c r="P18" s="28">
+      <c r="P18" s="27">
         <v>-0.55000000000000004</v>
       </c>
-      <c r="Q18" s="28">
+      <c r="Q18" s="27">
         <v>-0.53</v>
       </c>
-      <c r="R18" s="28">
+      <c r="R18" s="27">
         <v>-0.54</v>
       </c>
       <c r="S18" s="1">
@@ -2256,6 +2287,9 @@
       </c>
       <c r="U18" s="1">
         <v>-0.38</v>
+      </c>
+      <c r="V18" s="1">
+        <v>-0.37</v>
       </c>
     </row>
     <row r="20" spans="2:26" x14ac:dyDescent="0.2">
@@ -2275,7 +2309,7 @@
         <v>45</v>
       </c>
       <c r="H20" s="6">
-        <f t="shared" ref="H20:U20" si="7">(H7/D7) - 1</f>
+        <f t="shared" ref="H20:V20" si="7">(H7/D7) - 1</f>
         <v>0.36363636363636376</v>
       </c>
       <c r="I20" s="6">
@@ -2330,7 +2364,10 @@
         <f t="shared" si="7"/>
         <v>0.29629629629629628</v>
       </c>
-      <c r="V20" s="6"/>
+      <c r="V20" s="6">
+        <f t="shared" si="7"/>
+        <v>0.41071428571428581</v>
+      </c>
       <c r="W20" s="6"/>
       <c r="X20" s="6"/>
       <c r="Y20" s="6"/>
@@ -2344,7 +2381,7 @@
         <v>45</v>
       </c>
       <c r="E21" s="6">
-        <f t="shared" ref="E21:U21" si="8" xml:space="preserve"> (E7/D7) - 1</f>
+        <f t="shared" ref="E21:V21" si="8" xml:space="preserve"> (E7/D7) - 1</f>
         <v>6.0606060606060552E-2</v>
       </c>
       <c r="F21" s="6">
@@ -2411,7 +2448,10 @@
         <f t="shared" si="8"/>
         <v>6.0606060606060552E-2</v>
       </c>
-      <c r="V21" s="6"/>
+      <c r="V21" s="6">
+        <f t="shared" si="8"/>
+        <v>0.12857142857142856</v>
+      </c>
       <c r="W21" s="6"/>
       <c r="X21" s="6"/>
       <c r="Y21" s="6"/>
@@ -2488,6 +2528,9 @@
       <c r="U23" s="6">
         <v>0.45</v>
       </c>
+      <c r="V23" s="6">
+        <v>0.42</v>
+      </c>
     </row>
     <row r="24" spans="2:26" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B24" s="9" t="s">
@@ -2547,49 +2590,52 @@
       <c r="U24" s="9">
         <v>-6</v>
       </c>
+      <c r="V24" s="9">
+        <v>-10</v>
+      </c>
     </row>
     <row r="26" spans="2:26" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="B26" s="30" t="s">
+      <c r="B26" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="C26" s="30"/>
-      <c r="D26" s="30">
+      <c r="C26" s="29"/>
+      <c r="D26" s="29">
         <v>-12.4</v>
       </c>
-      <c r="E26" s="30">
+      <c r="E26" s="29">
         <v>-15.9</v>
       </c>
-      <c r="F26" s="30">
+      <c r="F26" s="29">
         <v>-16.8</v>
       </c>
-      <c r="G26" s="30">
+      <c r="G26" s="29">
         <v>-26</v>
       </c>
-      <c r="H26" s="30">
+      <c r="H26" s="29">
         <v>-21.8</v>
       </c>
-      <c r="I26" s="30">
+      <c r="I26" s="29">
         <v>-33.6</v>
       </c>
-      <c r="J26" s="31">
+      <c r="J26" s="30">
         <v>-27.9</v>
       </c>
-      <c r="K26" s="31">
+      <c r="K26" s="30">
         <v>-27.4</v>
       </c>
-      <c r="L26" s="31">
+      <c r="L26" s="30">
         <v>-53</v>
       </c>
-      <c r="M26" s="31">
+      <c r="M26" s="30">
         <v>-33.5</v>
       </c>
-      <c r="N26" s="31">
+      <c r="N26" s="30">
         <v>-27.2</v>
       </c>
-      <c r="O26" s="31">
+      <c r="O26" s="30">
         <v>-24.2</v>
       </c>
-      <c r="P26" s="31">
+      <c r="P26" s="30">
         <v>-5.7</v>
       </c>
       <c r="Q26" s="8">
@@ -2604,66 +2650,78 @@
       <c r="T26" s="8">
         <v>-4.9000000000000004</v>
       </c>
+      <c r="U26" s="8">
+        <v>-1.3</v>
+      </c>
+      <c r="V26" s="8">
+        <v>-18.3</v>
+      </c>
     </row>
     <row r="27" spans="2:26" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="27" t="s">
+      <c r="B27" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="C27" s="27"/>
-      <c r="D27" s="28">
+      <c r="C27" s="26"/>
+      <c r="D27" s="27">
         <v>0.6</v>
       </c>
-      <c r="E27" s="28">
+      <c r="E27" s="27">
         <v>0.1</v>
       </c>
-      <c r="F27" s="28">
+      <c r="F27" s="27">
         <v>1.1000000000000001</v>
       </c>
-      <c r="G27" s="28">
+      <c r="G27" s="27">
         <v>2.5</v>
       </c>
-      <c r="H27" s="28">
+      <c r="H27" s="27">
         <v>0.4</v>
       </c>
-      <c r="I27" s="28">
+      <c r="I27" s="27">
         <v>0.9</v>
       </c>
-      <c r="J27" s="28">
+      <c r="J27" s="27">
         <v>1.1000000000000001</v>
       </c>
-      <c r="K27" s="28">
+      <c r="K27" s="27">
         <v>3.1</v>
       </c>
-      <c r="L27" s="28">
+      <c r="L27" s="27">
         <v>1</v>
       </c>
-      <c r="M27" s="28">
+      <c r="M27" s="27">
         <v>1</v>
       </c>
-      <c r="N27" s="28">
+      <c r="N27" s="27">
         <v>0.7</v>
       </c>
-      <c r="O27" s="28">
+      <c r="O27" s="27">
         <v>0.4</v>
       </c>
-      <c r="P27" s="28">
+      <c r="P27" s="27">
         <v>1.4</v>
       </c>
-      <c r="Q27" s="28">
+      <c r="Q27" s="27">
         <v>0.4</v>
       </c>
-      <c r="R27" s="28">
+      <c r="R27" s="27">
         <v>0.6</v>
       </c>
-      <c r="S27" s="28">
+      <c r="S27" s="27">
         <v>1.4</v>
       </c>
-      <c r="T27" s="28">
+      <c r="T27" s="27">
         <v>0.6</v>
       </c>
+      <c r="U27" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="V27" s="1">
+        <v>1.7</v>
+      </c>
     </row>
     <row r="28" spans="2:26" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="B28" s="30" t="s">
+      <c r="B28" s="29" t="s">
         <v>13</v>
       </c>
       <c r="D28" s="8">
@@ -2736,11 +2794,11 @@
       </c>
       <c r="U28" s="8">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>-2.2000000000000002</v>
       </c>
       <c r="V28" s="8">
         <f>V26-V27</f>
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="W28" s="8">
         <f>W26-W27</f>
@@ -2748,17 +2806,17 @@
       </c>
     </row>
     <row r="29" spans="2:26" x14ac:dyDescent="0.2">
-      <c r="B29" s="27"/>
-      <c r="J29" s="28"/>
-      <c r="K29" s="28"/>
-      <c r="L29" s="28"/>
-      <c r="M29" s="28"/>
-      <c r="N29" s="28"/>
-      <c r="O29" s="28"/>
-      <c r="P29" s="28"/>
+      <c r="B29" s="26"/>
+      <c r="J29" s="27"/>
+      <c r="K29" s="27"/>
+      <c r="L29" s="27"/>
+      <c r="M29" s="27"/>
+      <c r="N29" s="27"/>
+      <c r="O29" s="27"/>
+      <c r="P29" s="27"/>
     </row>
     <row r="30" spans="2:26" x14ac:dyDescent="0.2">
-      <c r="B30" s="27" t="s">
+      <c r="B30" s="26" t="s">
         <v>36</v>
       </c>
       <c r="D30" s="1" t="s">
@@ -2828,7 +2886,7 @@
       <c r="U30" s="6"/>
     </row>
     <row r="32" spans="2:26" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="27"/>
+      <c r="B32" s="26"/>
       <c r="K32" s="10"/>
     </row>
     <row r="33" spans="2:30" x14ac:dyDescent="0.2">
@@ -2855,8 +2913,8 @@
       <c r="T33" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="U33" s="13" t="s">
-        <v>125</v>
+      <c r="U33" s="36" t="s">
+        <v>126</v>
       </c>
       <c r="V33" s="12"/>
       <c r="W33" s="12"/>
@@ -2866,47 +2924,47 @@
       <c r="AA33" s="12"/>
       <c r="AB33" s="12"/>
       <c r="AC33" s="12"/>
-      <c r="AD33" s="14"/>
+      <c r="AD33" s="13"/>
     </row>
     <row r="34" spans="2:30" x14ac:dyDescent="0.2">
-      <c r="B34" s="15"/>
-      <c r="AD34" s="16"/>
+      <c r="B34" s="14"/>
+      <c r="AD34" s="15"/>
     </row>
     <row r="35" spans="2:30" x14ac:dyDescent="0.2">
-      <c r="B35" s="15"/>
-      <c r="U35" s="17"/>
-      <c r="AD35" s="16"/>
+      <c r="B35" s="14"/>
+      <c r="U35" s="16"/>
+      <c r="AD35" s="15"/>
     </row>
     <row r="36" spans="2:30" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="18"/>
-      <c r="C36" s="19"/>
-      <c r="D36" s="19"/>
-      <c r="E36" s="19"/>
-      <c r="F36" s="19"/>
-      <c r="G36" s="19"/>
-      <c r="H36" s="19"/>
-      <c r="I36" s="19"/>
-      <c r="J36" s="19"/>
-      <c r="K36" s="19"/>
-      <c r="L36" s="19"/>
-      <c r="M36" s="19"/>
-      <c r="N36" s="19"/>
-      <c r="O36" s="19"/>
-      <c r="P36" s="19"/>
-      <c r="Q36" s="19"/>
-      <c r="R36" s="19"/>
-      <c r="S36" s="19"/>
-      <c r="T36" s="19"/>
-      <c r="U36" s="19"/>
-      <c r="V36" s="19"/>
-      <c r="W36" s="19"/>
-      <c r="X36" s="19"/>
-      <c r="Y36" s="19"/>
-      <c r="Z36" s="19"/>
-      <c r="AA36" s="19"/>
-      <c r="AB36" s="19"/>
-      <c r="AC36" s="19"/>
-      <c r="AD36" s="20"/>
+      <c r="B36" s="17"/>
+      <c r="C36" s="18"/>
+      <c r="D36" s="18"/>
+      <c r="E36" s="18"/>
+      <c r="F36" s="18"/>
+      <c r="G36" s="18"/>
+      <c r="H36" s="18"/>
+      <c r="I36" s="18"/>
+      <c r="J36" s="18"/>
+      <c r="K36" s="18"/>
+      <c r="L36" s="18"/>
+      <c r="M36" s="18"/>
+      <c r="N36" s="18"/>
+      <c r="O36" s="18"/>
+      <c r="P36" s="18"/>
+      <c r="Q36" s="18"/>
+      <c r="R36" s="18"/>
+      <c r="S36" s="18"/>
+      <c r="T36" s="18"/>
+      <c r="U36" s="18"/>
+      <c r="V36" s="18"/>
+      <c r="W36" s="18"/>
+      <c r="X36" s="18"/>
+      <c r="Y36" s="18"/>
+      <c r="Z36" s="18"/>
+      <c r="AA36" s="18"/>
+      <c r="AB36" s="18"/>
+      <c r="AC36" s="18"/>
+      <c r="AD36" s="19"/>
     </row>
     <row r="37" spans="2:30" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="38" spans="2:30" x14ac:dyDescent="0.2">
@@ -2934,57 +2992,57 @@
       </c>
     </row>
     <row r="39" spans="2:30" x14ac:dyDescent="0.2">
-      <c r="B39" s="15"/>
+      <c r="B39" s="14"/>
       <c r="T39" s="1" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="40" spans="2:30" x14ac:dyDescent="0.2">
-      <c r="B40" s="15"/>
-      <c r="D40" s="27"/>
-      <c r="E40" s="27"/>
-      <c r="F40" s="27"/>
-      <c r="G40" s="27"/>
-      <c r="H40" s="27"/>
-      <c r="I40" s="27"/>
-      <c r="J40" s="28"/>
-      <c r="K40" s="28"/>
-      <c r="L40" s="28"/>
-      <c r="M40" s="28"/>
-      <c r="N40" s="28"/>
-      <c r="O40" s="28"/>
-      <c r="P40" s="28"/>
-      <c r="Q40" s="28"/>
+      <c r="B40" s="14"/>
+      <c r="D40" s="26"/>
+      <c r="E40" s="26"/>
+      <c r="F40" s="26"/>
+      <c r="G40" s="26"/>
+      <c r="H40" s="26"/>
+      <c r="I40" s="26"/>
+      <c r="J40" s="27"/>
+      <c r="K40" s="27"/>
+      <c r="L40" s="27"/>
+      <c r="M40" s="27"/>
+      <c r="N40" s="27"/>
+      <c r="O40" s="27"/>
+      <c r="P40" s="27"/>
+      <c r="Q40" s="27"/>
       <c r="S40" s="9"/>
       <c r="T40" s="1" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="41" spans="2:30" x14ac:dyDescent="0.2">
-      <c r="B41" s="15"/>
+      <c r="B41" s="14"/>
       <c r="T41" s="1" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="42" spans="2:30" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="18"/>
-      <c r="C42" s="19"/>
-      <c r="D42" s="19"/>
-      <c r="E42" s="19"/>
-      <c r="F42" s="19"/>
-      <c r="G42" s="19"/>
-      <c r="H42" s="19"/>
-      <c r="I42" s="19"/>
-      <c r="J42" s="19"/>
-      <c r="K42" s="19"/>
-      <c r="L42" s="19"/>
-      <c r="M42" s="19"/>
-      <c r="N42" s="19"/>
-      <c r="O42" s="19"/>
-      <c r="P42" s="19"/>
-      <c r="Q42" s="19"/>
-      <c r="R42" s="19"/>
-      <c r="S42" s="19"/>
+      <c r="B42" s="17"/>
+      <c r="C42" s="18"/>
+      <c r="D42" s="18"/>
+      <c r="E42" s="18"/>
+      <c r="F42" s="18"/>
+      <c r="G42" s="18"/>
+      <c r="H42" s="18"/>
+      <c r="I42" s="18"/>
+      <c r="J42" s="18"/>
+      <c r="K42" s="18"/>
+      <c r="L42" s="18"/>
+      <c r="M42" s="18"/>
+      <c r="N42" s="18"/>
+      <c r="O42" s="18"/>
+      <c r="P42" s="18"/>
+      <c r="Q42" s="18"/>
+      <c r="R42" s="18"/>
+      <c r="S42" s="18"/>
       <c r="T42" s="1" t="s">
         <v>72</v>
       </c>
@@ -2999,17 +3057,17 @@
       <c r="C44" s="12"/>
     </row>
     <row r="45" spans="2:30" x14ac:dyDescent="0.2">
-      <c r="B45" s="15"/>
+      <c r="B45" s="14"/>
     </row>
     <row r="46" spans="2:30" x14ac:dyDescent="0.2">
-      <c r="B46" s="15"/>
+      <c r="B46" s="14"/>
     </row>
     <row r="47" spans="2:30" x14ac:dyDescent="0.2">
-      <c r="B47" s="15"/>
+      <c r="B47" s="14"/>
     </row>
     <row r="48" spans="2:30" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="18"/>
-      <c r="C48" s="19"/>
+      <c r="B48" s="17"/>
+      <c r="C48" s="18"/>
     </row>
     <row r="49" spans="2:30" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="50" spans="2:30" x14ac:dyDescent="0.2">
@@ -3041,405 +3099,405 @@
       <c r="AA50" s="12"/>
       <c r="AB50" s="12"/>
       <c r="AC50" s="12"/>
-      <c r="AD50" s="14"/>
+      <c r="AD50" s="13"/>
     </row>
     <row r="51" spans="2:30" x14ac:dyDescent="0.2">
-      <c r="B51" s="15"/>
-      <c r="AD51" s="16"/>
+      <c r="B51" s="14"/>
+      <c r="AD51" s="15"/>
     </row>
     <row r="52" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B52" s="15"/>
-      <c r="C52" s="33"/>
-      <c r="D52" s="33"/>
-      <c r="E52" s="33"/>
-      <c r="F52" s="33"/>
-      <c r="G52" s="33"/>
-      <c r="H52" s="33"/>
-      <c r="I52" s="33"/>
-      <c r="J52" s="33"/>
-      <c r="K52" s="33"/>
-      <c r="L52" s="33"/>
-      <c r="M52" s="33"/>
-      <c r="N52" s="33"/>
-      <c r="O52" s="33"/>
-      <c r="P52" s="33"/>
-      <c r="Q52" s="33"/>
-      <c r="R52" s="33"/>
-      <c r="S52" s="33"/>
-      <c r="T52" s="33"/>
-      <c r="U52" s="33"/>
-      <c r="V52" s="33"/>
-      <c r="W52" s="33"/>
-      <c r="X52" s="33"/>
-      <c r="Y52" s="33"/>
-      <c r="Z52" s="33"/>
-      <c r="AA52" s="33"/>
-      <c r="AB52" s="33"/>
-      <c r="AC52" s="33"/>
-      <c r="AD52" s="34"/>
+      <c r="B52" s="14"/>
+      <c r="C52" s="32"/>
+      <c r="D52" s="32"/>
+      <c r="E52" s="32"/>
+      <c r="F52" s="32"/>
+      <c r="G52" s="32"/>
+      <c r="H52" s="32"/>
+      <c r="I52" s="32"/>
+      <c r="J52" s="32"/>
+      <c r="K52" s="32"/>
+      <c r="L52" s="32"/>
+      <c r="M52" s="32"/>
+      <c r="N52" s="32"/>
+      <c r="O52" s="32"/>
+      <c r="P52" s="32"/>
+      <c r="Q52" s="32"/>
+      <c r="R52" s="32"/>
+      <c r="S52" s="32"/>
+      <c r="T52" s="32"/>
+      <c r="U52" s="32"/>
+      <c r="V52" s="32"/>
+      <c r="W52" s="32"/>
+      <c r="X52" s="32"/>
+      <c r="Y52" s="32"/>
+      <c r="Z52" s="32"/>
+      <c r="AA52" s="32"/>
+      <c r="AB52" s="32"/>
+      <c r="AC52" s="32"/>
+      <c r="AD52" s="33"/>
     </row>
     <row r="53" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B53" s="15"/>
-      <c r="C53" s="33"/>
-      <c r="D53" s="33"/>
-      <c r="E53" s="33"/>
-      <c r="F53" s="33"/>
-      <c r="G53" s="33"/>
-      <c r="H53" s="33"/>
-      <c r="I53" s="33"/>
-      <c r="J53" s="33"/>
-      <c r="K53" s="33"/>
-      <c r="L53" s="33"/>
-      <c r="M53" s="33"/>
-      <c r="N53" s="33"/>
-      <c r="O53" s="33"/>
-      <c r="P53" s="33"/>
-      <c r="Q53" s="33"/>
-      <c r="R53" s="33"/>
-      <c r="S53" s="33"/>
-      <c r="T53" s="33"/>
-      <c r="U53" s="33"/>
-      <c r="V53" s="33"/>
-      <c r="W53" s="33"/>
-      <c r="X53" s="33"/>
-      <c r="Y53" s="33"/>
-      <c r="Z53" s="33"/>
-      <c r="AA53" s="33"/>
-      <c r="AB53" s="33"/>
-      <c r="AC53" s="33"/>
-      <c r="AD53" s="34"/>
+      <c r="B53" s="14"/>
+      <c r="C53" s="32"/>
+      <c r="D53" s="32"/>
+      <c r="E53" s="32"/>
+      <c r="F53" s="32"/>
+      <c r="G53" s="32"/>
+      <c r="H53" s="32"/>
+      <c r="I53" s="32"/>
+      <c r="J53" s="32"/>
+      <c r="K53" s="32"/>
+      <c r="L53" s="32"/>
+      <c r="M53" s="32"/>
+      <c r="N53" s="32"/>
+      <c r="O53" s="32"/>
+      <c r="P53" s="32"/>
+      <c r="Q53" s="32"/>
+      <c r="R53" s="32"/>
+      <c r="S53" s="32"/>
+      <c r="T53" s="32"/>
+      <c r="U53" s="32"/>
+      <c r="V53" s="32"/>
+      <c r="W53" s="32"/>
+      <c r="X53" s="32"/>
+      <c r="Y53" s="32"/>
+      <c r="Z53" s="32"/>
+      <c r="AA53" s="32"/>
+      <c r="AB53" s="32"/>
+      <c r="AC53" s="32"/>
+      <c r="AD53" s="33"/>
     </row>
     <row r="54" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B54" s="15"/>
-      <c r="C54" s="33"/>
-      <c r="D54" s="33"/>
-      <c r="E54" s="33"/>
-      <c r="F54" s="33"/>
-      <c r="G54" s="33"/>
-      <c r="H54" s="33"/>
-      <c r="I54" s="33"/>
-      <c r="J54" s="33"/>
-      <c r="K54" s="33"/>
-      <c r="L54" s="33"/>
-      <c r="M54" s="33"/>
-      <c r="N54" s="33"/>
-      <c r="O54" s="33"/>
-      <c r="P54" s="33"/>
-      <c r="Q54" s="33"/>
-      <c r="R54" s="33"/>
-      <c r="S54" s="33"/>
-      <c r="T54" s="33"/>
-      <c r="U54" s="33"/>
-      <c r="V54" s="33"/>
-      <c r="W54" s="33"/>
-      <c r="X54" s="33"/>
-      <c r="Y54" s="33"/>
-      <c r="Z54" s="33"/>
-      <c r="AA54" s="33"/>
-      <c r="AB54" s="33"/>
-      <c r="AC54" s="33"/>
-      <c r="AD54" s="34"/>
+      <c r="B54" s="14"/>
+      <c r="C54" s="32"/>
+      <c r="D54" s="32"/>
+      <c r="E54" s="32"/>
+      <c r="F54" s="32"/>
+      <c r="G54" s="32"/>
+      <c r="H54" s="32"/>
+      <c r="I54" s="32"/>
+      <c r="J54" s="32"/>
+      <c r="K54" s="32"/>
+      <c r="L54" s="32"/>
+      <c r="M54" s="32"/>
+      <c r="N54" s="32"/>
+      <c r="O54" s="32"/>
+      <c r="P54" s="32"/>
+      <c r="Q54" s="32"/>
+      <c r="R54" s="32"/>
+      <c r="S54" s="32"/>
+      <c r="T54" s="32"/>
+      <c r="U54" s="32"/>
+      <c r="V54" s="32"/>
+      <c r="W54" s="32"/>
+      <c r="X54" s="32"/>
+      <c r="Y54" s="32"/>
+      <c r="Z54" s="32"/>
+      <c r="AA54" s="32"/>
+      <c r="AB54" s="32"/>
+      <c r="AC54" s="32"/>
+      <c r="AD54" s="33"/>
     </row>
     <row r="55" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B55" s="15"/>
-      <c r="C55" s="33"/>
-      <c r="D55" s="33"/>
-      <c r="E55" s="33"/>
-      <c r="F55" s="33"/>
-      <c r="G55" s="33"/>
-      <c r="H55" s="33"/>
-      <c r="I55" s="33"/>
-      <c r="J55" s="33"/>
-      <c r="K55" s="33"/>
-      <c r="L55" s="33"/>
-      <c r="M55" s="33"/>
-      <c r="N55" s="33"/>
-      <c r="O55" s="33"/>
-      <c r="P55" s="33"/>
-      <c r="Q55" s="33"/>
-      <c r="R55" s="33"/>
-      <c r="S55" s="33"/>
-      <c r="T55" s="33"/>
-      <c r="U55" s="33"/>
-      <c r="V55" s="33"/>
-      <c r="W55" s="33"/>
-      <c r="X55" s="33"/>
-      <c r="Y55" s="33"/>
-      <c r="Z55" s="33"/>
-      <c r="AA55" s="33"/>
-      <c r="AB55" s="33"/>
-      <c r="AC55" s="33"/>
-      <c r="AD55" s="34"/>
+      <c r="B55" s="14"/>
+      <c r="C55" s="32"/>
+      <c r="D55" s="32"/>
+      <c r="E55" s="32"/>
+      <c r="F55" s="32"/>
+      <c r="G55" s="32"/>
+      <c r="H55" s="32"/>
+      <c r="I55" s="32"/>
+      <c r="J55" s="32"/>
+      <c r="K55" s="32"/>
+      <c r="L55" s="32"/>
+      <c r="M55" s="32"/>
+      <c r="N55" s="32"/>
+      <c r="O55" s="32"/>
+      <c r="P55" s="32"/>
+      <c r="Q55" s="32"/>
+      <c r="R55" s="32"/>
+      <c r="S55" s="32"/>
+      <c r="T55" s="32"/>
+      <c r="U55" s="32"/>
+      <c r="V55" s="32"/>
+      <c r="W55" s="32"/>
+      <c r="X55" s="32"/>
+      <c r="Y55" s="32"/>
+      <c r="Z55" s="32"/>
+      <c r="AA55" s="32"/>
+      <c r="AB55" s="32"/>
+      <c r="AC55" s="32"/>
+      <c r="AD55" s="33"/>
     </row>
     <row r="56" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B56" s="15"/>
-      <c r="C56" s="33"/>
-      <c r="D56" s="33"/>
-      <c r="E56" s="33"/>
-      <c r="F56" s="33"/>
-      <c r="G56" s="33"/>
-      <c r="H56" s="33"/>
-      <c r="I56" s="33"/>
-      <c r="J56" s="33"/>
-      <c r="K56" s="33"/>
-      <c r="L56" s="33"/>
-      <c r="M56" s="33"/>
-      <c r="N56" s="33"/>
-      <c r="O56" s="33"/>
-      <c r="P56" s="33"/>
-      <c r="Q56" s="33"/>
-      <c r="R56" s="33"/>
-      <c r="S56" s="33"/>
-      <c r="T56" s="33"/>
-      <c r="U56" s="33"/>
-      <c r="V56" s="33"/>
-      <c r="W56" s="33"/>
-      <c r="X56" s="33"/>
-      <c r="Y56" s="33"/>
-      <c r="Z56" s="33"/>
-      <c r="AA56" s="33"/>
-      <c r="AB56" s="33"/>
-      <c r="AC56" s="33"/>
-      <c r="AD56" s="34"/>
+      <c r="B56" s="14"/>
+      <c r="C56" s="32"/>
+      <c r="D56" s="32"/>
+      <c r="E56" s="32"/>
+      <c r="F56" s="32"/>
+      <c r="G56" s="32"/>
+      <c r="H56" s="32"/>
+      <c r="I56" s="32"/>
+      <c r="J56" s="32"/>
+      <c r="K56" s="32"/>
+      <c r="L56" s="32"/>
+      <c r="M56" s="32"/>
+      <c r="N56" s="32"/>
+      <c r="O56" s="32"/>
+      <c r="P56" s="32"/>
+      <c r="Q56" s="32"/>
+      <c r="R56" s="32"/>
+      <c r="S56" s="32"/>
+      <c r="T56" s="32"/>
+      <c r="U56" s="32"/>
+      <c r="V56" s="32"/>
+      <c r="W56" s="32"/>
+      <c r="X56" s="32"/>
+      <c r="Y56" s="32"/>
+      <c r="Z56" s="32"/>
+      <c r="AA56" s="32"/>
+      <c r="AB56" s="32"/>
+      <c r="AC56" s="32"/>
+      <c r="AD56" s="33"/>
     </row>
     <row r="57" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B57" s="15"/>
-      <c r="C57" s="33"/>
-      <c r="D57" s="33"/>
-      <c r="E57" s="33"/>
-      <c r="F57" s="33"/>
-      <c r="G57" s="33"/>
-      <c r="H57" s="33"/>
-      <c r="I57" s="33"/>
-      <c r="J57" s="33"/>
-      <c r="K57" s="33"/>
-      <c r="L57" s="33"/>
-      <c r="M57" s="33"/>
-      <c r="N57" s="33"/>
-      <c r="O57" s="33"/>
-      <c r="P57" s="33"/>
-      <c r="Q57" s="33"/>
-      <c r="R57" s="33"/>
-      <c r="S57" s="33"/>
-      <c r="T57" s="33"/>
-      <c r="U57" s="33"/>
-      <c r="V57" s="33"/>
-      <c r="W57" s="33"/>
-      <c r="X57" s="33"/>
-      <c r="Y57" s="33"/>
-      <c r="Z57" s="33"/>
-      <c r="AA57" s="33"/>
-      <c r="AB57" s="33"/>
-      <c r="AC57" s="33"/>
-      <c r="AD57" s="34"/>
+      <c r="B57" s="14"/>
+      <c r="C57" s="32"/>
+      <c r="D57" s="32"/>
+      <c r="E57" s="32"/>
+      <c r="F57" s="32"/>
+      <c r="G57" s="32"/>
+      <c r="H57" s="32"/>
+      <c r="I57" s="32"/>
+      <c r="J57" s="32"/>
+      <c r="K57" s="32"/>
+      <c r="L57" s="32"/>
+      <c r="M57" s="32"/>
+      <c r="N57" s="32"/>
+      <c r="O57" s="32"/>
+      <c r="P57" s="32"/>
+      <c r="Q57" s="32"/>
+      <c r="R57" s="32"/>
+      <c r="S57" s="32"/>
+      <c r="T57" s="32"/>
+      <c r="U57" s="32"/>
+      <c r="V57" s="32"/>
+      <c r="W57" s="32"/>
+      <c r="X57" s="32"/>
+      <c r="Y57" s="32"/>
+      <c r="Z57" s="32"/>
+      <c r="AA57" s="32"/>
+      <c r="AB57" s="32"/>
+      <c r="AC57" s="32"/>
+      <c r="AD57" s="33"/>
     </row>
     <row r="58" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B58" s="15"/>
-      <c r="C58" s="33"/>
-      <c r="D58" s="33"/>
-      <c r="E58" s="33"/>
-      <c r="F58" s="33"/>
-      <c r="G58" s="33"/>
-      <c r="H58" s="33"/>
-      <c r="I58" s="33"/>
-      <c r="J58" s="33"/>
-      <c r="K58" s="33"/>
-      <c r="L58" s="33"/>
-      <c r="M58" s="33"/>
-      <c r="N58" s="33"/>
-      <c r="O58" s="33"/>
-      <c r="P58" s="33"/>
-      <c r="Q58" s="33"/>
-      <c r="R58" s="33"/>
-      <c r="S58" s="33"/>
-      <c r="T58" s="33"/>
-      <c r="U58" s="33"/>
-      <c r="V58" s="33"/>
-      <c r="W58" s="33"/>
-      <c r="X58" s="33"/>
-      <c r="Y58" s="33"/>
-      <c r="Z58" s="33"/>
-      <c r="AA58" s="33"/>
-      <c r="AB58" s="33"/>
-      <c r="AC58" s="33"/>
-      <c r="AD58" s="34"/>
+      <c r="B58" s="14"/>
+      <c r="C58" s="32"/>
+      <c r="D58" s="32"/>
+      <c r="E58" s="32"/>
+      <c r="F58" s="32"/>
+      <c r="G58" s="32"/>
+      <c r="H58" s="32"/>
+      <c r="I58" s="32"/>
+      <c r="J58" s="32"/>
+      <c r="K58" s="32"/>
+      <c r="L58" s="32"/>
+      <c r="M58" s="32"/>
+      <c r="N58" s="32"/>
+      <c r="O58" s="32"/>
+      <c r="P58" s="32"/>
+      <c r="Q58" s="32"/>
+      <c r="R58" s="32"/>
+      <c r="S58" s="32"/>
+      <c r="T58" s="32"/>
+      <c r="U58" s="32"/>
+      <c r="V58" s="32"/>
+      <c r="W58" s="32"/>
+      <c r="X58" s="32"/>
+      <c r="Y58" s="32"/>
+      <c r="Z58" s="32"/>
+      <c r="AA58" s="32"/>
+      <c r="AB58" s="32"/>
+      <c r="AC58" s="32"/>
+      <c r="AD58" s="33"/>
     </row>
     <row r="59" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B59" s="15"/>
-      <c r="C59" s="33"/>
-      <c r="D59" s="33"/>
-      <c r="E59" s="33"/>
-      <c r="F59" s="33"/>
-      <c r="G59" s="33"/>
-      <c r="H59" s="33"/>
-      <c r="I59" s="33"/>
-      <c r="J59" s="33"/>
-      <c r="K59" s="33"/>
-      <c r="L59" s="33"/>
-      <c r="M59" s="33"/>
-      <c r="N59" s="33"/>
-      <c r="O59" s="33"/>
-      <c r="P59" s="33"/>
-      <c r="Q59" s="33"/>
-      <c r="R59" s="33"/>
-      <c r="S59" s="33"/>
-      <c r="T59" s="33"/>
-      <c r="U59" s="33"/>
-      <c r="V59" s="33"/>
-      <c r="W59" s="33"/>
-      <c r="X59" s="33"/>
-      <c r="Y59" s="33"/>
-      <c r="Z59" s="33"/>
-      <c r="AA59" s="33"/>
-      <c r="AB59" s="33"/>
-      <c r="AC59" s="33"/>
-      <c r="AD59" s="34"/>
+      <c r="B59" s="14"/>
+      <c r="C59" s="32"/>
+      <c r="D59" s="32"/>
+      <c r="E59" s="32"/>
+      <c r="F59" s="32"/>
+      <c r="G59" s="32"/>
+      <c r="H59" s="32"/>
+      <c r="I59" s="32"/>
+      <c r="J59" s="32"/>
+      <c r="K59" s="32"/>
+      <c r="L59" s="32"/>
+      <c r="M59" s="32"/>
+      <c r="N59" s="32"/>
+      <c r="O59" s="32"/>
+      <c r="P59" s="32"/>
+      <c r="Q59" s="32"/>
+      <c r="R59" s="32"/>
+      <c r="S59" s="32"/>
+      <c r="T59" s="32"/>
+      <c r="U59" s="32"/>
+      <c r="V59" s="32"/>
+      <c r="W59" s="32"/>
+      <c r="X59" s="32"/>
+      <c r="Y59" s="32"/>
+      <c r="Z59" s="32"/>
+      <c r="AA59" s="32"/>
+      <c r="AB59" s="32"/>
+      <c r="AC59" s="32"/>
+      <c r="AD59" s="33"/>
     </row>
     <row r="60" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B60" s="15"/>
-      <c r="C60" s="33"/>
-      <c r="D60" s="33"/>
-      <c r="E60" s="33"/>
-      <c r="F60" s="33"/>
-      <c r="G60" s="33"/>
-      <c r="H60" s="33"/>
-      <c r="I60" s="33"/>
-      <c r="J60" s="33"/>
-      <c r="K60" s="33"/>
-      <c r="L60" s="33"/>
-      <c r="M60" s="33"/>
-      <c r="N60" s="33"/>
-      <c r="O60" s="33"/>
-      <c r="P60" s="33"/>
-      <c r="Q60" s="33"/>
-      <c r="R60" s="33"/>
-      <c r="S60" s="33"/>
-      <c r="T60" s="33"/>
-      <c r="U60" s="33"/>
-      <c r="V60" s="33"/>
-      <c r="W60" s="33"/>
-      <c r="X60" s="33"/>
-      <c r="Y60" s="33"/>
-      <c r="Z60" s="33"/>
-      <c r="AA60" s="33"/>
-      <c r="AB60" s="33"/>
-      <c r="AC60" s="33"/>
-      <c r="AD60" s="34"/>
+      <c r="B60" s="14"/>
+      <c r="C60" s="32"/>
+      <c r="D60" s="32"/>
+      <c r="E60" s="32"/>
+      <c r="F60" s="32"/>
+      <c r="G60" s="32"/>
+      <c r="H60" s="32"/>
+      <c r="I60" s="32"/>
+      <c r="J60" s="32"/>
+      <c r="K60" s="32"/>
+      <c r="L60" s="32"/>
+      <c r="M60" s="32"/>
+      <c r="N60" s="32"/>
+      <c r="O60" s="32"/>
+      <c r="P60" s="32"/>
+      <c r="Q60" s="32"/>
+      <c r="R60" s="32"/>
+      <c r="S60" s="32"/>
+      <c r="T60" s="32"/>
+      <c r="U60" s="32"/>
+      <c r="V60" s="32"/>
+      <c r="W60" s="32"/>
+      <c r="X60" s="32"/>
+      <c r="Y60" s="32"/>
+      <c r="Z60" s="32"/>
+      <c r="AA60" s="32"/>
+      <c r="AB60" s="32"/>
+      <c r="AC60" s="32"/>
+      <c r="AD60" s="33"/>
     </row>
     <row r="61" spans="2:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B61" s="15"/>
-      <c r="C61" s="33"/>
-      <c r="D61" s="33"/>
-      <c r="E61" s="33"/>
-      <c r="F61" s="33"/>
-      <c r="G61" s="33"/>
-      <c r="H61" s="33"/>
-      <c r="I61" s="33"/>
-      <c r="J61" s="33"/>
-      <c r="K61" s="33"/>
-      <c r="L61" s="33"/>
-      <c r="M61" s="33"/>
-      <c r="N61" s="33"/>
-      <c r="O61" s="33"/>
-      <c r="P61" s="33"/>
-      <c r="Q61" s="33"/>
-      <c r="R61" s="33"/>
-      <c r="S61" s="33"/>
-      <c r="T61" s="33"/>
-      <c r="U61" s="33"/>
-      <c r="V61" s="33"/>
-      <c r="W61" s="33"/>
-      <c r="X61" s="33"/>
-      <c r="Y61" s="33"/>
-      <c r="Z61" s="33"/>
-      <c r="AA61" s="33"/>
-      <c r="AB61" s="33"/>
-      <c r="AC61" s="33"/>
-      <c r="AD61" s="34"/>
+      <c r="B61" s="14"/>
+      <c r="C61" s="32"/>
+      <c r="D61" s="32"/>
+      <c r="E61" s="32"/>
+      <c r="F61" s="32"/>
+      <c r="G61" s="32"/>
+      <c r="H61" s="32"/>
+      <c r="I61" s="32"/>
+      <c r="J61" s="32"/>
+      <c r="K61" s="32"/>
+      <c r="L61" s="32"/>
+      <c r="M61" s="32"/>
+      <c r="N61" s="32"/>
+      <c r="O61" s="32"/>
+      <c r="P61" s="32"/>
+      <c r="Q61" s="32"/>
+      <c r="R61" s="32"/>
+      <c r="S61" s="32"/>
+      <c r="T61" s="32"/>
+      <c r="U61" s="32"/>
+      <c r="V61" s="32"/>
+      <c r="W61" s="32"/>
+      <c r="X61" s="32"/>
+      <c r="Y61" s="32"/>
+      <c r="Z61" s="32"/>
+      <c r="AA61" s="32"/>
+      <c r="AB61" s="32"/>
+      <c r="AC61" s="32"/>
+      <c r="AD61" s="33"/>
     </row>
     <row r="62" spans="2:30" ht="15" x14ac:dyDescent="0.25">
-      <c r="B62" s="15"/>
+      <c r="B62" s="14"/>
       <c r="O62" s="8"/>
-      <c r="AD62" s="16"/>
+      <c r="AD62" s="15"/>
     </row>
     <row r="63" spans="2:30" x14ac:dyDescent="0.2">
-      <c r="B63" s="15"/>
-      <c r="AD63" s="16"/>
+      <c r="B63" s="14"/>
+      <c r="AD63" s="15"/>
     </row>
     <row r="64" spans="2:30" x14ac:dyDescent="0.2">
-      <c r="B64" s="15"/>
-      <c r="AD64" s="16"/>
+      <c r="B64" s="14"/>
+      <c r="AD64" s="15"/>
     </row>
     <row r="65" spans="2:30" x14ac:dyDescent="0.2">
-      <c r="B65" s="15"/>
-      <c r="AD65" s="16"/>
+      <c r="B65" s="14"/>
+      <c r="AD65" s="15"/>
     </row>
     <row r="66" spans="2:30" x14ac:dyDescent="0.2">
-      <c r="B66" s="15"/>
-      <c r="AD66" s="16"/>
+      <c r="B66" s="14"/>
+      <c r="AD66" s="15"/>
     </row>
     <row r="67" spans="2:30" x14ac:dyDescent="0.2">
-      <c r="B67" s="15"/>
-      <c r="AD67" s="16"/>
+      <c r="B67" s="14"/>
+      <c r="AD67" s="15"/>
     </row>
     <row r="68" spans="2:30" x14ac:dyDescent="0.2">
-      <c r="B68" s="15"/>
-      <c r="AD68" s="16"/>
+      <c r="B68" s="14"/>
+      <c r="AD68" s="15"/>
     </row>
     <row r="69" spans="2:30" x14ac:dyDescent="0.2">
-      <c r="B69" s="15"/>
-      <c r="AD69" s="16"/>
+      <c r="B69" s="14"/>
+      <c r="AD69" s="15"/>
     </row>
     <row r="70" spans="2:30" x14ac:dyDescent="0.2">
-      <c r="B70" s="15"/>
-      <c r="AD70" s="16"/>
+      <c r="B70" s="14"/>
+      <c r="AD70" s="15"/>
     </row>
     <row r="71" spans="2:30" x14ac:dyDescent="0.2">
-      <c r="B71" s="15"/>
-      <c r="AD71" s="16"/>
+      <c r="B71" s="14"/>
+      <c r="AD71" s="15"/>
     </row>
     <row r="72" spans="2:30" x14ac:dyDescent="0.2">
-      <c r="B72" s="15"/>
-      <c r="AD72" s="16"/>
+      <c r="B72" s="14"/>
+      <c r="AD72" s="15"/>
     </row>
     <row r="73" spans="2:30" x14ac:dyDescent="0.2">
-      <c r="B73" s="15"/>
-      <c r="AD73" s="16"/>
+      <c r="B73" s="14"/>
+      <c r="AD73" s="15"/>
     </row>
     <row r="74" spans="2:30" x14ac:dyDescent="0.2">
-      <c r="B74" s="15"/>
-      <c r="AD74" s="16"/>
+      <c r="B74" s="14"/>
+      <c r="AD74" s="15"/>
     </row>
     <row r="75" spans="2:30" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B75" s="18"/>
-      <c r="C75" s="19"/>
-      <c r="D75" s="19"/>
-      <c r="E75" s="19"/>
-      <c r="F75" s="19"/>
-      <c r="G75" s="19"/>
-      <c r="H75" s="19"/>
-      <c r="I75" s="19"/>
-      <c r="J75" s="19"/>
-      <c r="K75" s="19"/>
-      <c r="L75" s="19"/>
-      <c r="M75" s="19"/>
-      <c r="N75" s="19"/>
-      <c r="O75" s="19"/>
-      <c r="P75" s="19"/>
-      <c r="Q75" s="19"/>
-      <c r="R75" s="19"/>
-      <c r="S75" s="19"/>
-      <c r="T75" s="19"/>
-      <c r="U75" s="19"/>
-      <c r="V75" s="19"/>
-      <c r="W75" s="19"/>
-      <c r="X75" s="19"/>
-      <c r="Y75" s="19"/>
-      <c r="Z75" s="19"/>
-      <c r="AA75" s="19"/>
-      <c r="AB75" s="19"/>
-      <c r="AC75" s="19"/>
-      <c r="AD75" s="20"/>
+      <c r="B75" s="17"/>
+      <c r="C75" s="18"/>
+      <c r="D75" s="18"/>
+      <c r="E75" s="18"/>
+      <c r="F75" s="18"/>
+      <c r="G75" s="18"/>
+      <c r="H75" s="18"/>
+      <c r="I75" s="18"/>
+      <c r="J75" s="18"/>
+      <c r="K75" s="18"/>
+      <c r="L75" s="18"/>
+      <c r="M75" s="18"/>
+      <c r="N75" s="18"/>
+      <c r="O75" s="18"/>
+      <c r="P75" s="18"/>
+      <c r="Q75" s="18"/>
+      <c r="R75" s="18"/>
+      <c r="S75" s="18"/>
+      <c r="T75" s="18"/>
+      <c r="U75" s="18"/>
+      <c r="V75" s="18"/>
+      <c r="W75" s="18"/>
+      <c r="X75" s="18"/>
+      <c r="Y75" s="18"/>
+      <c r="Z75" s="18"/>
+      <c r="AA75" s="18"/>
+      <c r="AB75" s="18"/>
+      <c r="AC75" s="18"/>
+      <c r="AD75" s="19"/>
     </row>
   </sheetData>
   <dataConsolidate/>
@@ -3513,221 +3571,221 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15" x14ac:dyDescent="0.2">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="F1" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="G1" s="21" t="s">
+      <c r="G1" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="H1" s="21" t="s">
+      <c r="H1" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="I1" s="21" t="s">
+      <c r="I1" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
     </row>
     <row r="2" spans="1:11" ht="15" x14ac:dyDescent="0.2">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="21" t="s">
         <v>92</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="D2" s="24">
+      <c r="D2" s="23">
         <v>0.39</v>
       </c>
-      <c r="E2" s="24" t="s">
+      <c r="E2" s="23" t="s">
         <v>94</v>
       </c>
-      <c r="F2" s="23" t="s">
+      <c r="F2" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="G2" s="23" t="s">
+      <c r="G2" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="H2" s="23" t="s">
+      <c r="H2" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="I2" s="23" t="s">
+      <c r="I2" s="22" t="s">
         <v>95</v>
       </c>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
     </row>
     <row r="3" spans="1:11" ht="15" x14ac:dyDescent="0.2">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="21" t="s">
         <v>83</v>
       </c>
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="C3" s="23" t="s">
+      <c r="C3" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="D3" s="24" t="s">
+      <c r="D3" s="23" t="s">
         <v>98</v>
       </c>
-      <c r="E3" s="24" t="s">
+      <c r="E3" s="23" t="s">
         <v>99</v>
       </c>
-      <c r="F3" s="23" t="s">
+      <c r="F3" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="G3" s="23" t="s">
+      <c r="G3" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="H3" s="23" t="s">
+      <c r="H3" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="I3" s="23" t="s">
+      <c r="I3" s="22" t="s">
         <v>100</v>
       </c>
-      <c r="J3" s="23"/>
-      <c r="K3" s="23"/>
+      <c r="J3" s="22"/>
+      <c r="K3" s="22"/>
     </row>
     <row r="4" spans="1:11" ht="15" x14ac:dyDescent="0.2">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="22" t="s">
         <v>101</v>
       </c>
-      <c r="C4" s="23" t="s">
+      <c r="C4" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="D4" s="24">
+      <c r="D4" s="23">
         <v>0.43</v>
       </c>
-      <c r="E4" s="24" t="s">
+      <c r="E4" s="23" t="s">
         <v>103</v>
       </c>
-      <c r="F4" s="23" t="s">
+      <c r="F4" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="G4" s="23" t="s">
+      <c r="G4" s="22" t="s">
         <v>104</v>
       </c>
-      <c r="H4" s="23" t="s">
+      <c r="H4" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="I4" s="23" t="s">
+      <c r="I4" s="22" t="s">
         <v>105</v>
       </c>
-      <c r="J4" s="23"/>
-      <c r="K4" s="23"/>
+      <c r="J4" s="22"/>
+      <c r="K4" s="22"/>
     </row>
     <row r="5" spans="1:11" ht="15" x14ac:dyDescent="0.2">
-      <c r="A5" s="22" t="s">
+      <c r="A5" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="22" t="s">
         <v>106</v>
       </c>
-      <c r="C5" s="23" t="s">
+      <c r="C5" s="22" t="s">
         <v>107</v>
       </c>
-      <c r="D5" s="24">
+      <c r="D5" s="23">
         <v>0.23</v>
       </c>
-      <c r="E5" s="24" t="s">
+      <c r="E5" s="23" t="s">
         <v>108</v>
       </c>
-      <c r="F5" s="23" t="s">
+      <c r="F5" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="G5" s="23" t="s">
+      <c r="G5" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="H5" s="23" t="s">
+      <c r="H5" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="I5" s="23" t="s">
+      <c r="I5" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="J5" s="23"/>
-      <c r="K5" s="23"/>
+      <c r="J5" s="22"/>
+      <c r="K5" s="22"/>
     </row>
     <row r="6" spans="1:11" ht="15" x14ac:dyDescent="0.2">
-      <c r="A6" s="22" t="s">
+      <c r="A6" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="B6" s="23" t="s">
+      <c r="B6" s="22" t="s">
         <v>110</v>
       </c>
-      <c r="C6" s="22" t="s">
+      <c r="C6" s="21" t="s">
         <v>111</v>
       </c>
-      <c r="D6" s="22" t="s">
+      <c r="D6" s="21" t="s">
         <v>112</v>
       </c>
-      <c r="E6" s="24" t="s">
+      <c r="E6" s="23" t="s">
         <v>113</v>
       </c>
-      <c r="F6" s="24" t="s">
+      <c r="F6" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="G6" s="23" t="s">
+      <c r="G6" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="H6" s="23" t="s">
+      <c r="H6" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="I6" s="23" t="s">
+      <c r="I6" s="22" t="s">
         <v>114</v>
       </c>
-      <c r="J6" s="23"/>
-      <c r="K6" s="23"/>
+      <c r="J6" s="22"/>
+      <c r="K6" s="22"/>
     </row>
     <row r="7" spans="1:11" ht="15" x14ac:dyDescent="0.2">
-      <c r="A7" s="22" t="s">
+      <c r="A7" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="B7" s="23" t="s">
+      <c r="B7" s="22" t="s">
         <v>115</v>
       </c>
-      <c r="C7" s="22" t="s">
+      <c r="C7" s="21" t="s">
         <v>116</v>
       </c>
-      <c r="D7" s="32">
+      <c r="D7" s="31">
         <v>0.53</v>
       </c>
-      <c r="E7" s="24" t="s">
+      <c r="E7" s="23" t="s">
         <v>117</v>
       </c>
-      <c r="F7" s="24" t="s">
+      <c r="F7" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="G7" s="22" t="s">
+      <c r="G7" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="H7" s="23" t="s">
+      <c r="H7" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="I7" s="23" t="s">
+      <c r="I7" s="22" t="s">
         <v>118</v>
       </c>
-      <c r="J7" s="23"/>
-      <c r="K7" s="23"/>
+      <c r="J7" s="22"/>
+      <c r="K7" s="22"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
@@ -3764,9 +3822,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3914,26 +3975,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4D65B96D-4012-4621-9665-52F685045C2D}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D8A951E8-5D72-42FD-8030-87DD7D8D4010}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="878aac0c-df32-40a9-a231-d93e9c7b9b1a"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -3957,9 +4007,17 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D8A951E8-5D72-42FD-8030-87DD7D8D4010}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4D65B96D-4012-4621-9665-52F685045C2D}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="878aac0c-df32-40a9-a231-d93e9c7b9b1a"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>